--- a/ceph/总结/ceph分析.xlsx
+++ b/ceph/总结/ceph分析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\other\github\fsdoc\ceph\总结\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6FD9CA-0C2E-4145-B0E0-DB018F7D7FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA176119-5AC0-45D6-AB15-B0B13C80D1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mds文件演变" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="135">
   <si>
     <t>0.48 Argonaut</t>
   </si>
@@ -891,6 +891,13 @@
 image快照
 cephfs快照    多fs下存在问题，不推荐使用
 Ceph的快照与其他系统的快照一样，是基于COW(copy-on-write)实现的。其实现由RADOS支持，基于OSD服务端——每次做完快照后再对卷进行写入时就会触发COW操作，即先拷贝出原数据对象的数据出来生成快照对象，然后对原数据对象进行写入。于此同时，每次快照的操作会更新卷的元数据，以及包括快照ID，快照链，parent信息等在内的快照信息。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Jewel ceph fs snapshots are still experimental. Does someone has a clue when this would become stable, or how experimental this is ?
+We’re not sure yet. Probably it will follow stable multi-MDS; we’re thinking about redoing some of the core snapshot pieces still. :/
+It’s still pretty experimental in Jewel. Shen had been working on this and I think it often works, but tends to fall apart under the failure of other components (eg, restarting an MDS while snapshot work is happening).
+-Greg</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1059,7 +1066,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1082,6 +1089,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1091,14 +1102,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1382,7 +1388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
@@ -1441,7 +1447,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="10" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1458,7 +1464,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="9"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -1473,7 +1479,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="10"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
@@ -1581,7 +1587,7 @@
         <v>41</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="8" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1624,7 +1630,7 @@
         <v>43</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="13" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1639,7 +1645,7 @@
         <v>44</v>
       </c>
       <c r="H16" s="4"/>
-      <c r="I16" s="10"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
@@ -1907,7 +1913,7 @@
         <v>48</v>
       </c>
       <c r="H36" s="4"/>
-      <c r="I36" s="11" t="s">
+      <c r="I36" s="8" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2462,10 +2468,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4543C1C5-32B6-4805-96E2-087CFC2DEC26}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2483,10 +2489,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2512,6 +2518,11 @@
       </c>
       <c r="B5" s="7" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="70" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
